--- a/grantova_zadost_labka__naceneni.xlsx
+++ b/grantova_zadost_labka__naceneni.xlsx
@@ -1172,7 +1172,7 @@
   <dimension ref="1:37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
